--- a/medicine/Pharmacie/Acide_niflumique/Acide_niflumique.xlsx
+++ b/medicine/Pharmacie/Acide_niflumique/Acide_niflumique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’acide niflumique est un médicament utilisé dans le traitement de l'arthrite rhumatoïde, et, plus généralement, des douleurs musculaires et articulaires. Il sert également contre certaines douleurs dues à une inflammation de la gorge, des oreilles ou de la bouche[3].
-C'est un anti-inflammatoire non stéroïdien. On le range parmi les inhibiteurs de la cyclooxygénase 2 (PTGS2). Il est parfois utilisé en recherche biologique pour inhiber les canaux à chlorure[4]. Des publications font état de son action sur les récepteurs GABAA[5] et NMDA[6], et pour bloquer les canaux calciques de type T[7].
+L’acide niflumique est un médicament utilisé dans le traitement de l'arthrite rhumatoïde, et, plus généralement, des douleurs musculaires et articulaires. Il sert également contre certaines douleurs dues à une inflammation de la gorge, des oreilles ou de la bouche.
+C'est un anti-inflammatoire non stéroïdien. On le range parmi les inhibiteurs de la cyclooxygénase 2 (PTGS2). Il est parfois utilisé en recherche biologique pour inhiber les canaux à chlorure. Des publications font état de son action sur les récepteurs GABAA et NMDA, et pour bloquer les canaux calciques de type T.
 </t>
         </is>
       </c>
